--- a/sydw/2020上/考点/考点.xlsx
+++ b/sydw/2020上/考点/考点.xlsx
@@ -4,19 +4,45 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18315" windowHeight="12150" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
     <sheet name="法律法规" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="经济" sheetId="3" r:id="rId3"/>
+    <sheet name="思想" sheetId="4" r:id="rId4"/>
+    <sheet name="道德规范" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+  <si>
+    <t>判断题</t>
+  </si>
+  <si>
+    <t>单选</t>
+  </si>
+  <si>
+    <t>多选</t>
+  </si>
+  <si>
+    <t>材料题</t>
+  </si>
+  <si>
+    <t>行政管理常识</t>
+  </si>
+  <si>
+    <t>管理学</t>
+  </si>
+  <si>
+    <t>基本原理？</t>
+  </si>
+  <si>
+    <t>案例分析</t>
+  </si>
   <si>
     <t>2019新增法律法规</t>
   </si>
@@ -34,6 +60,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2001</t>
     </r>
     <r>
@@ -66,20 +98,270 @@
       <t>公民道德建设实施纲要</t>
     </r>
   </si>
+  <si>
+    <t>事业单位公开招聘人员暂行规定</t>
+  </si>
+  <si>
+    <t>事业单位岗位设置管理试行办法</t>
+  </si>
+  <si>
+    <t>关于分类推进事业单位改革的指导意见</t>
+  </si>
+  <si>
+    <t>事业单位人事管理条例</t>
+  </si>
+  <si>
+    <t>马克思主义政治经济学</t>
+  </si>
+  <si>
+    <t>中国社会主义市场经济</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+  </si>
+  <si>
+    <t>微观经济</t>
+  </si>
+  <si>
+    <t>服务业</t>
+  </si>
+  <si>
+    <t>产业增加值已超过工业。成为火车头。经济增长新动力</t>
+  </si>
+  <si>
+    <t>价格机制是市场机制的核心机制</t>
+  </si>
+  <si>
+    <t>价格机制</t>
+  </si>
+  <si>
+    <t>宏观经济指标</t>
+  </si>
+  <si>
+    <t>恩格尔系数</t>
+  </si>
+  <si>
+    <t>供求机制</t>
+  </si>
+  <si>
+    <t>基尼系数</t>
+  </si>
+  <si>
+    <t>风险机制</t>
+  </si>
+  <si>
+    <t>道琼斯指数</t>
+  </si>
+  <si>
+    <t>责任机制</t>
+  </si>
+  <si>
+    <t>纳斯达克指数</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>周期性行业</t>
+  </si>
+  <si>
+    <t>经济特区</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>对外贸易</t>
+  </si>
+  <si>
+    <t>顺差、逆差、贸易赤字、外汇储备、关税</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>市场指数</t>
+  </si>
+  <si>
+    <t>霍尔果斯</t>
+  </si>
+  <si>
+    <t>价值尺度</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>供给指数</t>
+  </si>
+  <si>
+    <t>喀什</t>
+  </si>
+  <si>
+    <t>流通手段</t>
+  </si>
+  <si>
+    <t>收入指数</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>储藏手段</t>
+  </si>
+  <si>
+    <t>价格指数</t>
+  </si>
+  <si>
+    <t>支付手段</t>
+  </si>
+  <si>
+    <t>世界货币</t>
+  </si>
+  <si>
+    <t>正外部性</t>
+  </si>
+  <si>
+    <t>负外部性</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>从商品中分离出来，固定充当一般等价物的商品。</t>
+  </si>
+  <si>
+    <t>本质</t>
+  </si>
+  <si>
+    <t>一般等价物</t>
+  </si>
+  <si>
+    <t>购买性支出</t>
+  </si>
+  <si>
+    <t>政府支出</t>
+  </si>
+  <si>
+    <t>转移性支出</t>
+  </si>
+  <si>
+    <t>社会保障和补贴形式支出</t>
+  </si>
+  <si>
+    <t>哲学思想</t>
+  </si>
+  <si>
+    <t>唯物、唯心、辩证、质变与量变</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>社会性</t>
+  </si>
+  <si>
+    <t>社会主义思想</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>历史性</t>
+  </si>
+  <si>
+    <t>邓小平</t>
+  </si>
+  <si>
+    <t>邓小平理论</t>
+  </si>
+  <si>
+    <t>独立性</t>
+  </si>
+  <si>
+    <t>一国两制</t>
+  </si>
+  <si>
+    <t>习近平</t>
+  </si>
+  <si>
+    <t>阶级性</t>
+  </si>
+  <si>
+    <t>中国特色社会主义理论体系</t>
+  </si>
+  <si>
+    <t>江泽民</t>
+  </si>
+  <si>
+    <t>三个代表</t>
+  </si>
+  <si>
+    <t>贫穷不是社会主义</t>
+  </si>
+  <si>
+    <t>明确了社会主义的根本任务是发展生产力，促进社会主义经济建设</t>
+  </si>
+  <si>
+    <t>现在的世界是开放的世界</t>
+  </si>
+  <si>
+    <t>说明中国的发展离不开世界，要得到发展，必须坚持对外开放</t>
+  </si>
+  <si>
+    <t>计划经济不等于社会主义，资本主义也有计划</t>
+  </si>
+  <si>
+    <t>表明市场经济和计划经济不是划分社会主义和资本主义的标准，市场和计划只是经济手段，资源配置的方式。</t>
+  </si>
+  <si>
+    <t>市场经济不等于资本主义，社会主义也有市场</t>
+  </si>
+  <si>
+    <t>中国共产党的领导是中特社的最本质特征，是中特社的最大优势，是人民当家做主和依法治国的根本保证</t>
+  </si>
+  <si>
+    <t>中特社道路是实现社会主义现代化、创造人民美好生活的必由之路</t>
+  </si>
+  <si>
+    <t>中特社理论体系是指导党和人民实现中华民族伟大复兴的正确理论</t>
+  </si>
+  <si>
+    <t>中特社制度是当代中国发展进步的根本制度保障</t>
+  </si>
+  <si>
+    <t>中特社文化是激励全党全国各族人民奋勇前进的强大精神力量</t>
+  </si>
+  <si>
+    <t>一个国家(核心),两种制度</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -98,8 +380,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,8 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,115 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,31 +545,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,151 +707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,36 +736,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +804,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,6 +821,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,148 +856,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,14 +1359,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C3:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="12:13">
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1082,54 +1413,74 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:F14"/>
+  <dimension ref="C2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="11.25"/>
+    <col min="3" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>43739</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://www.chinagwyw.org/jiangsu/484279.html" tooltip="http://www.chinagwyw.org/jiangsu/484279.html"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.chinagwyw.org/jiangsu/484279.html" tooltip="http://www.chinagwyw.org/jiangsu/484279.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1140,16 +1491,401 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="5:5">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" spans="5:5">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="5:5">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="5:5">
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="10:13">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="10:13">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="10:13">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1980.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1988.4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2010.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13">
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="L8:L11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="4:6">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12">
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12">
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12">
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sydw/2020上/考点/考点.xlsx
+++ b/sydw/2020上/考点/考点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="11820" windowHeight="12150" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="经济" sheetId="3" r:id="rId3"/>
     <sheet name="思想" sheetId="4" r:id="rId4"/>
     <sheet name="道德规范" sheetId="5" r:id="rId5"/>
+    <sheet name="人文科技" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
   <si>
     <t>判断题</t>
   </si>
@@ -341,24 +342,425 @@
   <si>
     <t>一个国家(核心),两种制度</t>
   </si>
+  <si>
+    <t>齐民要术</t>
+  </si>
+  <si>
+    <t>贾思勰</t>
+  </si>
+  <si>
+    <t>北魏</t>
+  </si>
+  <si>
+    <t>现存最早农书</t>
+  </si>
+  <si>
+    <t>本草纲目</t>
+  </si>
+  <si>
+    <t>李时珍</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>药物学界中的王子</t>
+  </si>
+  <si>
+    <t>梦溪笔谈</t>
+  </si>
+  <si>
+    <t>沈括</t>
+  </si>
+  <si>
+    <t>北宋</t>
+  </si>
+  <si>
+    <t>科学史里程碑/坐标</t>
+  </si>
+  <si>
+    <t>天工开物</t>
+  </si>
+  <si>
+    <t>宋应星</t>
+  </si>
+  <si>
+    <t>17世纪工艺百科全书。完整的科学技术体系</t>
+  </si>
+  <si>
+    <t>四书</t>
+  </si>
+  <si>
+    <t>大学、中庸、论语、孟子</t>
+  </si>
+  <si>
+    <t>五经</t>
+  </si>
+  <si>
+    <t>道家经典</t>
+  </si>
+  <si>
+    <t>周易参同</t>
+  </si>
+  <si>
+    <t>婉约派</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>宋词</t>
+  </si>
+  <si>
+    <t>豪放派</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>人类空间</t>
+  </si>
+  <si>
+    <t>陆地、海洋、大气层、外层空间分别是人类的第1，2，3，4层空间</t>
+  </si>
+  <si>
+    <t>大气层</t>
+  </si>
+  <si>
+    <t>对流层</t>
+  </si>
+  <si>
+    <t>风云雨雷电</t>
+  </si>
+  <si>
+    <t>平流层</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>中间层</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>暖层</t>
+  </si>
+  <si>
+    <t>极光</t>
+  </si>
+  <si>
+    <t>散逸层</t>
+  </si>
+  <si>
+    <t>宇航员失重</t>
+  </si>
+  <si>
+    <t>小孔成像</t>
+  </si>
+  <si>
+    <t>光直线传播</t>
+  </si>
+  <si>
+    <t>玻璃幕墙</t>
+  </si>
+  <si>
+    <t>光的反射</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>投影仪</t>
+  </si>
+  <si>
+    <t>光折射</t>
+  </si>
+  <si>
+    <t>物理常识</t>
+  </si>
+  <si>
+    <t>海市蜃楼</t>
+  </si>
+  <si>
+    <t>光的折射和全反射</t>
+  </si>
+  <si>
+    <t>发动机</t>
+  </si>
+  <si>
+    <t>燃气轮机</t>
+  </si>
+  <si>
+    <t>飞机、轮船、大型舰艇、电站等</t>
+  </si>
+  <si>
+    <t>马达</t>
+  </si>
+  <si>
+    <t>施肥机</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>光纤等</t>
+  </si>
+  <si>
+    <t>通讯</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>1/2/3/4/5G</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>1.资源配置动态化</t>
+  </si>
+  <si>
+    <t>2.需求服务的自主化</t>
+  </si>
+  <si>
+    <t>云计算</t>
+  </si>
+  <si>
+    <t>3.服务无处不在</t>
+  </si>
+  <si>
+    <t>4.服务可以计量化</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>5.资源的池化和透明化</t>
+  </si>
+  <si>
+    <t>区块链</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>自然灾害</t>
+  </si>
+  <si>
+    <t>事故灾害</t>
+  </si>
+  <si>
+    <t>国家突发公共事件总体应急预案</t>
+  </si>
+  <si>
+    <t>公共卫生事件</t>
+  </si>
+  <si>
+    <t>社会安全事件</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>I级(特大)</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>II级(重大)</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>III(较大)</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>IV级(一般)</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>泼水节</t>
+  </si>
+  <si>
+    <t>四月中旬</t>
+  </si>
+  <si>
+    <t>傣族、阿昌族、布朗族、佤族、德昂族及泰国/东南亚</t>
+  </si>
+  <si>
+    <t>火把节</t>
+  </si>
+  <si>
+    <t>非遗</t>
+  </si>
+  <si>
+    <t>彝族、白族、纳西族、基诺族、拉祜族</t>
+  </si>
+  <si>
+    <t>节日</t>
+  </si>
+  <si>
+    <t>苗年</t>
+  </si>
+  <si>
+    <t>苗族</t>
+  </si>
+  <si>
+    <t>古尔邦节</t>
+  </si>
+  <si>
+    <t>伊斯兰教三大节</t>
+  </si>
+  <si>
+    <t>回族、维吾尔族、哈萨克族</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>开斋节</t>
+  </si>
+  <si>
+    <t>回族</t>
+  </si>
+  <si>
+    <t>圣纪节</t>
+  </si>
+  <si>
+    <t>红茶</t>
+  </si>
+  <si>
+    <t>全发酵茶</t>
+  </si>
+  <si>
+    <t>祁门红茶、泉城绿等</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>绿茶</t>
+  </si>
+  <si>
+    <t>未发酵</t>
+  </si>
+  <si>
+    <t>碧螺春、西湖龙井、蒙顶甘露</t>
+  </si>
+  <si>
+    <t>黄茶</t>
+  </si>
+  <si>
+    <t>未发酵+闷黄</t>
+  </si>
+  <si>
+    <t>沩山毛尖、君山银针等</t>
+  </si>
+  <si>
+    <t>黑茶</t>
+  </si>
+  <si>
+    <t>发酵茶</t>
+  </si>
+  <si>
+    <t>湖南黑毛茶、湖北老青茶、四川南路边茶和西路边茶、云南的普洱、广西的六堡茶</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>酱香型</t>
+  </si>
+  <si>
+    <t>浓香型</t>
+  </si>
+  <si>
+    <t>清香型</t>
+  </si>
+  <si>
+    <t>米香型</t>
+  </si>
+  <si>
+    <t>世界遗产</t>
+  </si>
+  <si>
+    <t>子、丑、寅、卯、</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF629755"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辰、巳、午、未、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF629755"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申、酉、戌、亥</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.3"/>
+      <color rgb="FF629755"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.3"/>
+      <color rgb="FF629755"/>
+      <name val="Fira Code"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
@@ -380,48 +782,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,28 +804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +812,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,9 +844,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,8 +858,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,7 +938,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,187 +947,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +1144,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,45 +1230,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -813,26 +1238,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,156 +1264,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1365,7 +1785,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
@@ -1415,15 +1835,15 @@
   <sheetPr/>
   <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="17.7545454545455" customWidth="1"/>
-    <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" style="1"/>
+    <col min="3" max="3" width="17.7583333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.8166666666667" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
@@ -1438,7 +1858,7 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1446,15 +1866,15 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="11">
         <v>43739</v>
       </c>
     </row>
@@ -1497,28 +1917,28 @@
       <selection activeCell="M16" sqref="M16:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="5:5">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="5:5">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="5:5">
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="5:5">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1537,7 +1957,7 @@
       <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M8" t="s">
@@ -1548,7 +1968,7 @@
       <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="3"/>
       <c r="M9" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1977,7 @@
       <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="3"/>
       <c r="M10" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1986,7 @@
       <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="3"/>
       <c r="M11" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1995,7 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>1980.5</v>
       </c>
     </row>
@@ -1583,25 +2003,22 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3"/>
       <c r="F13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="F15" t="s">
         <v>41</v>
       </c>
@@ -1613,7 +2030,7 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>1988.4</v>
       </c>
       <c r="M16" t="s">
@@ -1624,7 +2041,7 @@
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>2010.5</v>
       </c>
       <c r="G17" t="s">
@@ -1641,7 +2058,6 @@
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3"/>
       <c r="G18" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +2150,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="4:6">
       <c r="D1" t="s">
@@ -1883,9 +2299,560 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E1:J88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:10">
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="7:10">
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10">
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10">
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" spans="5:7">
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="6:8">
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="6:8">
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="6:8">
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="6:8">
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" spans="7:8">
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" s="4"/>
+      <c r="G29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1" spans="7:8">
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="6:6">
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="7:8">
+      <c r="G34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" spans="7:8">
+      <c r="G38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8">
+      <c r="G39" s="3"/>
+      <c r="H39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8">
+      <c r="G41" s="3"/>
+      <c r="H41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="7:7">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" customFormat="1" spans="7:7">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" customFormat="1" spans="6:7">
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" customFormat="1" spans="7:7">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" customFormat="1" spans="7:7">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" spans="6:7">
+      <c r="F49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="3"/>
+      <c r="G50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" s="3"/>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" s="3"/>
+      <c r="G55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="3"/>
+      <c r="G56" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="3"/>
+      <c r="G57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1"/>
+    <row r="59" spans="7:10">
+      <c r="G59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" t="s">
+        <v>183</v>
+      </c>
+      <c r="J60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10">
+      <c r="F61" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" t="s">
+        <v>188</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10">
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9">
+      <c r="G64" t="s">
+        <v>194</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" spans="7:9">
+      <c r="G66" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9">
+      <c r="F67" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9">
+      <c r="G68" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" t="s">
+        <v>203</v>
+      </c>
+      <c r="I68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9">
+      <c r="G69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7">
+      <c r="G75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1"/>
+    <row r="80" spans="6:6">
+      <c r="F80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="7:7">
+      <c r="G86" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="7:7">
+      <c r="G87" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="7:7">
+      <c r="G88" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H62:I64"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sydw/2020上/考点/考点.xlsx
+++ b/sydw/2020上/考点/考点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11820" windowHeight="12150" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="223">
   <si>
     <t>判断题</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>案例分析</t>
+  </si>
+  <si>
+    <t>制度</t>
+  </si>
+  <si>
+    <t>是政治词汇</t>
+  </si>
+  <si>
+    <t>经济制度</t>
+  </si>
+  <si>
+    <t>体制</t>
+  </si>
+  <si>
+    <t>是行业词汇</t>
+  </si>
+  <si>
+    <t>经济体制</t>
   </si>
   <si>
     <t>2019新增法律法规</t>
@@ -701,6 +719,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF629755"/>
+        <rFont val="Fira Code"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">* </t>
     </r>
     <r>
@@ -716,6 +741,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11.3"/>
+        <color rgb="FF629755"/>
+        <rFont val="Fira Code"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">* </t>
     </r>
     <r>
@@ -735,10 +767,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -790,16 +822,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,9 +858,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,9 +881,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,25 +914,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,7 +937,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,37 +952,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,66 +991,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1031,109 +1159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,13 +1179,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,21 +1209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1199,15 +1220,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,9 +1241,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,6 +1258,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1252,10 +1284,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,16 +1299,16 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,112 +1317,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1779,13 +1811,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M11"/>
+  <dimension ref="C3:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
@@ -1821,6 +1853,28 @@
     <row r="11" spans="3:3">
       <c r="C11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1839,40 +1893,40 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="17.7583333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.5416666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.8166666666667" style="7"/>
+    <col min="3" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11">
         <v>43739</v>
@@ -1880,22 +1934,22 @@
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1917,83 +1971,83 @@
       <selection activeCell="M16" sqref="M16:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="5:5">
       <c r="E1" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="5:5">
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="5:5">
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="6:13">
       <c r="F8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="10:13">
       <c r="J9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="10:13">
       <c r="J10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="10:13">
       <c r="J11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
         <v>1980.5</v>
@@ -2001,132 +2055,132 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7">
         <v>1988.4</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7">
         <v>2010.5</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="6:13">
       <c r="F19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="6:9">
       <c r="F29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2150,138 +2204,138 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="4:6">
       <c r="D1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="3:12">
       <c r="C2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="4:12">
       <c r="D3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="6:12">
       <c r="F4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="4:12">
       <c r="D11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2353,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2311,252 +2365,252 @@
   <sheetPr/>
   <dimension ref="E1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="7:10">
       <c r="G2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="7:10">
       <c r="G3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="7:10">
       <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
         <v>108</v>
       </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="6:7">
       <c r="F7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="7:7">
       <c r="G11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="6:8">
       <c r="F16" s="3"/>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="6:8">
       <c r="F17" s="3"/>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="6:8">
       <c r="F18" s="3"/>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="6:8">
       <c r="F19" s="3"/>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="1"/>
     <row r="21" s="1" customFormat="1"/>
     <row r="22" spans="7:8">
       <c r="G22" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H23" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="4"/>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="1"/>
     <row r="32" customFormat="1" spans="7:8">
       <c r="G32" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="6:6">
       <c r="F33" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="7:8">
       <c r="G34" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" customFormat="1"/>
@@ -2564,40 +2618,40 @@
     <row r="37" s="1" customFormat="1"/>
     <row r="38" spans="7:8">
       <c r="G38" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="7:7">
@@ -2608,7 +2662,7 @@
     </row>
     <row r="45" customFormat="1" spans="6:7">
       <c r="F45" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -2621,133 +2675,133 @@
     <row r="48" s="1" customFormat="1"/>
     <row r="49" spans="6:7">
       <c r="F49" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" s="3"/>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" s="3"/>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H54" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="3"/>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="3"/>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="3"/>
       <c r="G57" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H57" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1"/>
     <row r="59" spans="7:10">
       <c r="G59" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J59" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="7:10">
       <c r="G60" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="6:10">
       <c r="F61" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J61" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="7:10">
       <c r="G62" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="7:9">
       <c r="G64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2755,93 +2809,93 @@
     <row r="65" s="1" customFormat="1"/>
     <row r="66" spans="7:9">
       <c r="G66" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I66" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="6:9">
       <c r="F67" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H67" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I67" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="7:9">
       <c r="G68" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H68" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I68" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="7:9">
       <c r="G69" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I69" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1"/>
     <row r="80" spans="6:6">
       <c r="F80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="7:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" ht="14.5" spans="7:7">
       <c r="G86" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" spans="7:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" ht="14.5" spans="7:7">
       <c r="G87" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="7:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" ht="14.5" spans="7:7">
       <c r="G88" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/sydw/2020上/考点/考点.xlsx
+++ b/sydw/2020上/考点/考点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="20175" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="256">
   <si>
     <t>判断题</t>
   </si>
@@ -61,6 +61,129 @@
   </si>
   <si>
     <t>经济体制</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>民法</t>
+  </si>
+  <si>
+    <t>婚姻法/继承法</t>
+  </si>
+  <si>
+    <t>刑法</t>
+  </si>
+  <si>
+    <t>行政法</t>
+  </si>
+  <si>
+    <t>社会公德</t>
+  </si>
+  <si>
+    <t>道德</t>
+  </si>
+  <si>
+    <t>经济常识</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>社会主义市场经济</t>
+  </si>
+  <si>
+    <t>微观经济</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+  </si>
+  <si>
+    <t>行政管理</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>基本原理</t>
+  </si>
+  <si>
+    <t>马列主义</t>
+  </si>
+  <si>
+    <t>毛泽东思想</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>中国特色社会主义理论体系</t>
+  </si>
+  <si>
+    <t>邓小平理论</t>
+  </si>
+  <si>
+    <t>党19大</t>
+  </si>
+  <si>
+    <t>一个中心，两个基本点</t>
+  </si>
+  <si>
+    <t>解放思想，实事求是</t>
+  </si>
+  <si>
+    <t>两手抓，两手硬</t>
+  </si>
+  <si>
+    <t>社会主义核心价值观</t>
+  </si>
+  <si>
+    <t>三个有利于</t>
+  </si>
+  <si>
+    <t>社会主义的本质</t>
+  </si>
+  <si>
+    <t>一国两制</t>
+  </si>
+  <si>
+    <t>基本派别</t>
+  </si>
+  <si>
+    <t>辩证唯物主义</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>马克思主义哲学</t>
+  </si>
+  <si>
+    <t>认识论</t>
+  </si>
+  <si>
+    <t>唯物辩证法</t>
+  </si>
+  <si>
+    <t>质量互变规律</t>
+  </si>
+  <si>
+    <t>历史唯物论</t>
+  </si>
+  <si>
+    <t>社会意识</t>
+  </si>
+  <si>
+    <t>普遍性</t>
+  </si>
+  <si>
+    <t>主义政治经济学</t>
+  </si>
+  <si>
+    <t>货币</t>
   </si>
   <si>
     <t>2019新增法律法规</t>
@@ -136,12 +259,6 @@
     <t>中国社会主义市场经济</t>
   </si>
   <si>
-    <t>宏观经济</t>
-  </si>
-  <si>
-    <t>微观经济</t>
-  </si>
-  <si>
     <t>服务业</t>
   </si>
   <si>
@@ -229,9 +346,6 @@
     <t>收入指数</t>
   </si>
   <si>
-    <t>货币</t>
-  </si>
-  <si>
     <t>储藏手段</t>
   </si>
   <si>
@@ -280,40 +394,25 @@
     <t>唯物、唯心、辩证、质变与量变</t>
   </si>
   <si>
-    <t>思想</t>
-  </si>
-  <si>
     <t>社会性</t>
   </si>
   <si>
     <t>社会主义思想</t>
   </si>
   <si>
-    <t>马克思</t>
-  </si>
-  <si>
     <t>历史性</t>
   </si>
   <si>
     <t>邓小平</t>
   </si>
   <si>
-    <t>邓小平理论</t>
-  </si>
-  <si>
     <t>独立性</t>
   </si>
   <si>
-    <t>一国两制</t>
-  </si>
-  <si>
     <t>习近平</t>
   </si>
   <si>
     <t>阶级性</t>
-  </si>
-  <si>
-    <t>中国特色社会主义理论体系</t>
   </si>
   <si>
     <t>江泽民</t>
@@ -767,10 +866,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -815,6 +914,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -822,7 +928,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,72 +956,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,21 +980,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -952,7 +996,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,7 +1090,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,67 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,97 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,6 +1275,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1194,32 +1308,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,6 +1352,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1258,24 +1375,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1284,10 +1383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,133 +1395,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1811,13 +1910,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M17"/>
+  <dimension ref="C3:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
@@ -1875,6 +1977,181 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8">
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14">
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14">
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="7:11">
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11">
+      <c r="I59" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1893,40 +2170,40 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="17.7545454545455" customWidth="1"/>
-    <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" style="7"/>
+    <col min="3" max="3" width="17.7583333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.8166666666667" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F7" s="11">
         <v>43739</v>
@@ -1934,22 +2211,22 @@
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1967,87 +2244,87 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="5:5">
       <c r="E1" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="5:5">
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="5:5">
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="6:13">
       <c r="F8" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="10:13">
       <c r="J9" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="10:13">
       <c r="J10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="10:13">
       <c r="J11" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7">
         <v>1980.5</v>
@@ -2055,132 +2332,132 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7">
         <v>1988.4</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C17" s="7">
         <v>2010.5</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="6:13">
       <c r="F19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="6:9">
       <c r="F29" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2204,138 +2481,138 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="4:6">
       <c r="D1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="3:12">
       <c r="C2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="4:12">
       <c r="D3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="6:12">
       <c r="F4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="4:12">
       <c r="D11" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2630,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2369,248 +2646,248 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="11.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="7:10">
       <c r="G2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="7:10">
       <c r="G3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="7:10">
       <c r="G4" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="6:7">
       <c r="F7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:7">
       <c r="G11" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="6:8">
       <c r="F15" s="3" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="6:8">
       <c r="F16" s="3"/>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="6:8">
       <c r="F17" s="3"/>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="6:8">
       <c r="F18" s="3"/>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="6:8">
       <c r="F19" s="3"/>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="1"/>
     <row r="21" s="1" customFormat="1"/>
     <row r="22" spans="7:8">
       <c r="G22" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="4" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="4"/>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="1"/>
     <row r="32" customFormat="1" spans="7:8">
       <c r="G32" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="6:6">
       <c r="F33" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="7:8">
       <c r="G34" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" customFormat="1"/>
@@ -2618,40 +2895,40 @@
     <row r="37" s="1" customFormat="1"/>
     <row r="38" spans="7:8">
       <c r="G38" s="3" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="3"/>
       <c r="H39" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="3"/>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="7:7">
@@ -2662,7 +2939,7 @@
     </row>
     <row r="45" customFormat="1" spans="6:7">
       <c r="F45" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -2675,133 +2952,133 @@
     <row r="48" s="1" customFormat="1"/>
     <row r="49" spans="6:7">
       <c r="F49" s="3" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" s="3"/>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" s="3"/>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="3" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="H54" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="3"/>
       <c r="G55" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="3"/>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="H56" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="3"/>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1"/>
     <row r="59" spans="7:10">
       <c r="G59" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="J59" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="7:10">
       <c r="G60" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="J60" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="6:10">
       <c r="F61" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="G61" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="J61" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="7:10">
       <c r="G62" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G63" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="7:9">
       <c r="G64" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2809,93 +3086,93 @@
     <row r="65" s="1" customFormat="1"/>
     <row r="66" spans="7:9">
       <c r="G66" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="I66" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="6:9">
       <c r="F67" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="G67" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="I67" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="7:9">
       <c r="G68" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="I68" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="7:9">
       <c r="G69" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="I69" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="G72" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1"/>
     <row r="80" spans="6:6">
       <c r="F80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" ht="14.5" spans="7:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="7:7">
       <c r="G86" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" ht="14.5" spans="7:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="7:7">
       <c r="G87" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" ht="14.5" spans="7:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="7:7">
       <c r="G88" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/sydw/2020上/考点/考点.xlsx
+++ b/sydw/2020上/考点/考点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="11670"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="题型" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="331">
   <si>
     <t>判断题</t>
   </si>
@@ -253,6 +253,18 @@
     <t>事业单位人事管理条例</t>
   </si>
   <si>
+    <t>劳动合同法</t>
+  </si>
+  <si>
+    <t>不适合退休返聘</t>
+  </si>
+  <si>
+    <t>经济法</t>
+  </si>
+  <si>
+    <t>反不正当竞争法</t>
+  </si>
+  <si>
     <t>马克思主义政治经济学</t>
   </si>
   <si>
@@ -460,6 +472,66 @@
     <t>一个国家(核心),两种制度</t>
   </si>
   <si>
+    <t>诗经、楚辞、论语、大学、周礼、孟子、韩非子、中庸、严华经、</t>
+  </si>
+  <si>
+    <t>经史子集</t>
+  </si>
+  <si>
+    <t>经</t>
+  </si>
+  <si>
+    <t>儒家经典。或者文学方面的著作</t>
+  </si>
+  <si>
+    <t>大学、周易、尚书、诗经、周礼、仪礼、礼记、春秋左氏传、春秋公羊传、春秋谷梁传、论语、孝经、尔雅、孟子</t>
+  </si>
+  <si>
+    <t>史</t>
+  </si>
+  <si>
+    <t>分15类。正史、编年、纪事本末、别史杂史、诏令奏议、传记、史钞、载记、时令、地理、职官、政书、目录、史评。</t>
+  </si>
+  <si>
+    <t>各种体裁历史著作</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>分14类。儒家、兵家、法家、农家、医家、天文算法、术数、艺术、诸录、杂家、类书、小说家、释家、道家。</t>
+  </si>
+  <si>
+    <t>收录诸子百家著作和类书</t>
+  </si>
+  <si>
+    <t>韩非子、严华经</t>
+  </si>
+  <si>
+    <t>集</t>
+  </si>
+  <si>
+    <t>楚辞</t>
+  </si>
+  <si>
+    <t>收录诗文词总集和专集等</t>
+  </si>
+  <si>
+    <t>别集</t>
+  </si>
+  <si>
+    <t>总集</t>
+  </si>
+  <si>
+    <t>诗文评</t>
+  </si>
+  <si>
+    <t>词曲</t>
+  </si>
+  <si>
+    <t>词集、词选、词话、词谱词韵、南北曲</t>
+  </si>
+  <si>
     <t>齐民要术</t>
   </si>
   <si>
@@ -505,6 +577,15 @@
     <t>17世纪工艺百科全书。完整的科学技术体系</t>
   </si>
   <si>
+    <t>皇帝内经</t>
+  </si>
+  <si>
+    <t>伤寒杂病论</t>
+  </si>
+  <si>
+    <t>山海经</t>
+  </si>
+  <si>
     <t>四书</t>
   </si>
   <si>
@@ -637,6 +718,75 @@
     <t>1/2/3/4/5G</t>
   </si>
   <si>
+    <t>量子通信</t>
+  </si>
+  <si>
+    <t>利用量子力学原理对量子态进行操控的。特点：绝对安全，高效，速度快。优点：保密性高、大容量、可远距离传输</t>
+  </si>
+  <si>
+    <t>臭氧</t>
+  </si>
+  <si>
+    <t>特殊臭味(鱼腥味)</t>
+  </si>
+  <si>
+    <t>淡蓝色</t>
+  </si>
+  <si>
+    <t>强氧化剂，消毒脱臭。</t>
+  </si>
+  <si>
+    <t>高浓度对人损害</t>
+  </si>
+  <si>
+    <t>二氧化碳</t>
+  </si>
+  <si>
+    <t>无味</t>
+  </si>
+  <si>
+    <t>无色</t>
+  </si>
+  <si>
+    <t>高浓度让动我中毒</t>
+  </si>
+  <si>
+    <t>气</t>
+  </si>
+  <si>
+    <t>氢气</t>
+  </si>
+  <si>
+    <t>无臭无味</t>
+  </si>
+  <si>
+    <t>无色透明</t>
+  </si>
+  <si>
+    <t>无毒</t>
+  </si>
+  <si>
+    <t>一氧化碳</t>
+  </si>
+  <si>
+    <t>无色无味无刺激</t>
+  </si>
+  <si>
+    <t>使血红蛋白丧失携氧能力</t>
+  </si>
+  <si>
+    <t>超声波</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>微波</t>
+  </si>
+  <si>
+    <t>验钞机、微波炉、电视遥控器、声呐系统</t>
+  </si>
+  <si>
     <t>特征</t>
   </si>
   <si>
@@ -787,6 +937,9 @@
     <t>沩山毛尖、君山银针等</t>
   </si>
   <si>
+    <t>工艺</t>
+  </si>
+  <si>
     <t>黑茶</t>
   </si>
   <si>
@@ -811,7 +964,40 @@
     <t>米香型</t>
   </si>
   <si>
+    <t>苏绣</t>
+  </si>
+  <si>
+    <t>东方明珠。山水能分远近之躯，楼阁具现深邃之体，人物。。生动之情，花鸟能报卓越亲昵之态。</t>
+  </si>
+  <si>
+    <t>刺绣</t>
+  </si>
+  <si>
+    <t>湘绣</t>
+  </si>
+  <si>
+    <t>羊毛细秀。丝绒线。“绣花花生香，秀鸟能听声，秀虎能奔跑，秀人能传神”</t>
+  </si>
+  <si>
+    <t>粤秀</t>
+  </si>
+  <si>
+    <t>针步短、色彩浓艳</t>
+  </si>
+  <si>
+    <t>苏武牧羊、丹凤朝阳、郭子仪拜寿、狮子头、海龙王头、鹌鹑鸟</t>
+  </si>
+  <si>
+    <t>蜀绣</t>
+  </si>
+  <si>
+    <t>观赏少，日用居多。秀制在被面、枕套、衣、鞋或画屏</t>
+  </si>
+  <si>
     <t>世界遗产</t>
+  </si>
+  <si>
+    <t>二十四节气</t>
   </si>
   <si>
     <t>子、丑、寅、卯、</t>
@@ -860,16 +1046,55 @@
       <t>申、酉、戌、亥</t>
     </r>
   </si>
+  <si>
+    <t>基因重组</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>可遗传变异的来源</t>
+  </si>
+  <si>
+    <t>基因突变</t>
+  </si>
+  <si>
+    <t>染色体变异</t>
+  </si>
+  <si>
+    <t>1.蒸汽机。18世界60年代</t>
+  </si>
+  <si>
+    <t>2.电动机、发电机，广泛用电。19世纪70年代。</t>
+  </si>
+  <si>
+    <t>四次技术革命</t>
+  </si>
+  <si>
+    <t>3.电子计算、空间技术。二战后</t>
+  </si>
+  <si>
+    <t>4.生物工程技术。20世纪后期</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>1.哥白尼太阳中心说的创立，以牛顿完成自然科学第一次大综合为标志</t>
+  </si>
+  <si>
+    <t>科学革命</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -914,21 +1139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,46 +1153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,6 +1171,37 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1035,7 +1238,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,6 +1275,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -1069,7 +1294,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,7 +1315,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,13 +1393,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,55 +1477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,85 +1489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,6 +1506,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1308,24 +1548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1337,17 +1559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,6 +1586,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1383,10 +1614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,137 +1626,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,6 +1764,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1912,11 +2146,11 @@
   <sheetPr/>
   <dimension ref="C3:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -2164,17 +2398,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:F16"/>
+  <dimension ref="C2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="17.7583333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.5416666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.8166666666667" style="7"/>
+    <col min="3" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="36.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
@@ -2189,7 +2423,7 @@
       <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2197,15 +2431,15 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:6">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>43739</v>
       </c>
     </row>
@@ -2227,6 +2461,27 @@
     <row r="16" spans="4:4">
       <c r="D16" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2245,158 +2500,158 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="9" style="7"/>
+    <col min="3" max="3" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="5:5">
-      <c r="E1" s="8" t="s">
-        <v>66</v>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="5:5">
-      <c r="E2" s="8" t="s">
-        <v>67</v>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="5:5">
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="5:5">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="6:13">
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="10:13">
       <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="10:13">
       <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="L10" s="4"/>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="10:13">
       <c r="J11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="7">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8">
         <v>1980.5</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="7">
+        <v>92</v>
+      </c>
+      <c r="C16" s="8">
         <v>1988.4</v>
       </c>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="7">
+        <v>94</v>
+      </c>
+      <c r="C17" s="8">
         <v>2010.5</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="6:13">
@@ -2404,60 +2659,60 @@
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="6:9">
       <c r="F29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2478,17 +2733,17 @@
   <dimension ref="C1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="4:6">
       <c r="D1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="3:12">
@@ -2496,29 +2751,29 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="4:12">
       <c r="D3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="6:12">
       <c r="F4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="7:7">
@@ -2528,10 +2783,10 @@
     </row>
     <row r="6" spans="6:12">
       <c r="F6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -2541,57 +2796,57 @@
     </row>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="4:12">
       <c r="D11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -2599,12 +2854,12 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -2612,7 +2867,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2630,7 +2885,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2640,548 +2895,836 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:J88"/>
+  <dimension ref="D1:L136"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:10">
-      <c r="G1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="7:10">
-      <c r="G2" t="s">
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="2" spans="4:12">
+      <c r="D2" t="s">
         <v>140</v>
       </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
       <c r="I2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="7:10">
-      <c r="G3" t="s">
+      <c r="L2" t="s">
         <v>143</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="3" spans="5:9">
+      <c r="E3" t="s">
         <v>144</v>
       </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
       <c r="I3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="7:10">
-      <c r="G4" t="s">
+    <row r="4" spans="5:12">
+      <c r="E4" t="s">
         <v>147</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
         <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="6:7">
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12">
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="6:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" t="s">
         <v>157</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" spans="5:7">
-      <c r="E14" t="s">
+    <row r="13" spans="7:10">
+      <c r="G13" t="s">
         <v>159</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H13" t="s">
         <v>160</v>
       </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10">
       <c r="G14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8">
-      <c r="F15" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10">
       <c r="G15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="6:8">
-      <c r="F16" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10">
       <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
         <v>165</v>
       </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="6:8">
-      <c r="F17" s="3"/>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="6:8">
-      <c r="F18" s="3"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="6:8">
-      <c r="F19" s="3"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" spans="7:8">
-      <c r="G22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8">
-      <c r="G23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:7">
       <c r="F24" t="s">
         <v>177</v>
       </c>
       <c r="G24" t="s">
         <v>178</v>
       </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
-      <c r="E25" t="s">
+    <row r="27" spans="6:7">
+      <c r="F27" t="s">
         <v>180</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>181</v>
       </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="6:8">
-      <c r="F28" s="4" t="s">
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
         <v>183</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F29" t="s">
         <v>184</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="6:8">
-      <c r="F29" s="4"/>
-      <c r="G29" t="s">
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
         <v>186</v>
       </c>
-      <c r="H29" t="s">
+      <c r="F31" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="s">
+      <c r="G31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1" spans="7:8">
+    <row r="32" spans="6:8">
+      <c r="F32" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="6:6">
-      <c r="F33" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="7:8">
+    <row r="33" customFormat="1" spans="6:8">
+      <c r="F33" s="4"/>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="6:8">
+      <c r="F34" s="4"/>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" spans="7:8">
-      <c r="G38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="35" customFormat="1" spans="6:8">
+      <c r="F35" s="4"/>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="6:8">
+      <c r="F36" s="4"/>
+      <c r="G36" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
     <row r="39" spans="7:8">
-      <c r="G39" s="3"/>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
       <c r="H39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" s="3"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
       <c r="H40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="7:8">
-      <c r="G41" s="3"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>208</v>
+      </c>
       <c r="H42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="7:7">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" customFormat="1" spans="7:7">
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" customFormat="1" spans="6:7">
-      <c r="F45" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" customFormat="1" spans="7:7">
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" customFormat="1" spans="7:7">
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" spans="6:7">
-      <c r="F49" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" s="5"/>
+      <c r="G46" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1" spans="7:8">
       <c r="G49" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7">
-      <c r="F50" s="3"/>
-      <c r="G50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="H49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="6:6">
+      <c r="F50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="7:8">
       <c r="G51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7">
-      <c r="F52" s="3"/>
-      <c r="G52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="6:8">
-      <c r="F54" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" t="s">
-        <v>210</v>
-      </c>
-      <c r="H54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="6:8">
-      <c r="F55" s="3"/>
-      <c r="G55" t="s">
-        <v>212</v>
-      </c>
-      <c r="H55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="H51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="8:10">
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1" spans="7:12">
       <c r="G56" t="s">
-        <v>214</v>
-      </c>
-      <c r="H56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="6:8">
-      <c r="F57" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="I56" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" t="s">
+        <v>226</v>
+      </c>
+      <c r="L56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="7:12">
       <c r="G57" t="s">
-        <v>216</v>
-      </c>
-      <c r="H57" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" spans="7:10">
+        <v>228</v>
+      </c>
+      <c r="I57" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" t="s">
+        <v>230</v>
+      </c>
+      <c r="L57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="6:12">
+      <c r="F58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" t="s">
+        <v>233</v>
+      </c>
+      <c r="I58" t="s">
+        <v>234</v>
+      </c>
+      <c r="J58" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="7:12">
       <c r="G59" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" t="s">
-        <v>219</v>
-      </c>
-      <c r="J59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
-      <c r="G60" t="s">
-        <v>221</v>
-      </c>
-      <c r="I60" t="s">
-        <v>222</v>
-      </c>
-      <c r="J60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="6:10">
-      <c r="F61" t="s">
-        <v>224</v>
-      </c>
-      <c r="G61" t="s">
-        <v>225</v>
-      </c>
-      <c r="J61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
+        <v>237</v>
+      </c>
+      <c r="I59" t="s">
+        <v>238</v>
+      </c>
+      <c r="L59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1" spans="7:7">
       <c r="G62" t="s">
-        <v>227</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" t="s">
-        <v>230</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="6:7">
+      <c r="F63" t="s">
+        <v>241</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="7:9">
-      <c r="G64" t="s">
-        <v>233</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" spans="7:9">
-      <c r="G66" t="s">
-        <v>234</v>
-      </c>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="7:7">
+      <c r="G64" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" s="4"/>
       <c r="H66" t="s">
-        <v>235</v>
-      </c>
-      <c r="I66" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
       <c r="F67" t="s">
-        <v>237</v>
-      </c>
-      <c r="G67" t="s">
-        <v>238</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G67" s="4"/>
       <c r="H67" t="s">
-        <v>239</v>
-      </c>
-      <c r="I67" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="7:9">
-      <c r="G68" t="s">
-        <v>241</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" s="4"/>
       <c r="H68" t="s">
-        <v>242</v>
-      </c>
-      <c r="I68" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9">
-      <c r="G69" t="s">
-        <v>244</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8">
+      <c r="E69" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="4"/>
       <c r="H69" t="s">
-        <v>245</v>
-      </c>
-      <c r="I69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="7:7">
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" customFormat="1" spans="7:7">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" customFormat="1" spans="6:7">
       <c r="F72" t="s">
-        <v>247</v>
-      </c>
-      <c r="G72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7">
-      <c r="G73" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7">
-      <c r="G74" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7">
-      <c r="G75" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1"/>
-    <row r="80" spans="6:6">
-      <c r="F80" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="86" ht="14.25" spans="7:7">
-      <c r="G86" s="5" t="s">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" customFormat="1" spans="7:7">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" customFormat="1" spans="7:7">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" spans="6:7">
+      <c r="F76" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" ht="14.25" spans="7:7">
-      <c r="G87" s="6" t="s">
+      <c r="G76" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="7:7">
-      <c r="G88" s="6" t="s">
+    <row r="77" spans="6:7">
+      <c r="F77" s="4"/>
+      <c r="G77" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7">
+      <c r="F79" s="4"/>
+      <c r="G79" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8">
+      <c r="F82" s="4"/>
+      <c r="G82" t="s">
+        <v>262</v>
+      </c>
+      <c r="H82" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="F83" s="4"/>
+      <c r="G83" t="s">
+        <v>264</v>
+      </c>
+      <c r="H83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="F84" s="4"/>
+      <c r="G84" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" spans="7:10">
+      <c r="G86" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" t="s">
+        <v>269</v>
+      </c>
+      <c r="J86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10">
+      <c r="G87" t="s">
+        <v>271</v>
+      </c>
+      <c r="I87" t="s">
+        <v>272</v>
+      </c>
+      <c r="J87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10">
+      <c r="F88" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" t="s">
+        <v>275</v>
+      </c>
+      <c r="J88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10">
+      <c r="G89" t="s">
+        <v>277</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10">
+      <c r="E90" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" t="s">
+        <v>281</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9">
+      <c r="G91" t="s">
+        <v>283</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" spans="7:9">
+      <c r="G93" t="s">
+        <v>284</v>
+      </c>
+      <c r="H93" t="s">
+        <v>285</v>
+      </c>
+      <c r="I93" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9">
+      <c r="F94" t="s">
+        <v>287</v>
+      </c>
+      <c r="G94" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94" t="s">
+        <v>289</v>
+      </c>
+      <c r="I94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9">
+      <c r="G95" t="s">
+        <v>291</v>
+      </c>
+      <c r="H95" t="s">
+        <v>292</v>
+      </c>
+      <c r="I95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9">
+      <c r="D96" t="s">
+        <v>294</v>
+      </c>
+      <c r="G96" t="s">
+        <v>295</v>
+      </c>
+      <c r="H96" t="s">
+        <v>296</v>
+      </c>
+      <c r="I96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" t="s">
+        <v>298</v>
+      </c>
+      <c r="G99" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7">
+      <c r="G100" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7">
+      <c r="G101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7">
+      <c r="G102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9">
+      <c r="G105" t="s">
+        <v>303</v>
+      </c>
+      <c r="I105" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="6:9">
+      <c r="F106" t="s">
+        <v>305</v>
+      </c>
+      <c r="G106" t="s">
+        <v>306</v>
+      </c>
+      <c r="I106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="7:11">
+      <c r="G107" t="s">
+        <v>308</v>
+      </c>
+      <c r="I107" t="s">
+        <v>309</v>
+      </c>
+      <c r="K107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9">
+      <c r="G108" t="s">
+        <v>311</v>
+      </c>
+      <c r="I108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="1"/>
+    <row r="112" spans="6:6">
+      <c r="F112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="118" ht="14.5" spans="7:7">
+      <c r="G118" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" ht="14.5" spans="7:7">
+      <c r="G119" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" ht="14.5" spans="7:7">
+      <c r="G120" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1"/>
+    <row r="123" spans="7:7">
+      <c r="G123" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7">
+      <c r="E124" t="s">
+        <v>319</v>
+      </c>
+      <c r="F124" t="s">
+        <v>320</v>
+      </c>
+      <c r="G124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1"/>
+    <row r="130" spans="6:6">
+      <c r="F130" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="E132" t="s">
+        <v>325</v>
+      </c>
+      <c r="F132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6">
+      <c r="D135" t="s">
+        <v>328</v>
+      </c>
+      <c r="F135" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H62:I64"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H89:I91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
